--- a/biology/Biochimie/SEMA7A/SEMA7A.xlsx
+++ b/biology/Biochimie/SEMA7A/SEMA7A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sémaphorine 7A,  membrane d'ancrage GPI (John Milton Hagen groupe sanguin) (SEMA7A) également connu sous le nom CD108 (Cluster de Differentiation 108), est codé par un gènes présent chez l'homme, le gène SEMA7A[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sémaphorine 7A,  membrane d'ancrage GPI (John Milton Hagen groupe sanguin) (SEMA7A) également connu sous le nom CD108 (Cluster de Differentiation 108), est codé par un gènes présent chez l'homme, le gène SEMA7A.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>La génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette protéine est connue pour avoir huit variantes dans la région extracellulaire: sept se trouvent dans le domaine Sema et une au sein du domaine PSI. Le gène est présent dans le chromosome no 15 de l'homme[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette protéine est connue pour avoir huit variantes dans la région extracellulaire: sept se trouvent dans le domaine Sema et une au sein du domaine PSI. Le gène est présent dans le chromosome no 15 de l'homme.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Biologie moléculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette protéine forme des dimères.
 </t>
